--- a/formats/excel/SSR/2015/Formats RHA 15.xlsx
+++ b/formats/excel/SSR/2015/Formats RHA 15.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/SSR/2015/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24132C6-3E51-0C46-83BC-A464A283E9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24240" windowHeight="12855" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="116">
   <si>
     <t>libelle</t>
   </si>
@@ -367,14 +383,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -382,353 +392,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -736,307 +409,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1297,25 +689,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.8333333333333" customWidth="1"/>
-    <col min="2" max="2" width="13.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="45.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1386,7 +776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1410,7 +800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1434,7 +824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1458,7 +848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1482,7 +872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1506,7 +896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1530,7 +920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1554,7 +944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1578,7 +968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1602,7 +992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1626,7 +1016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1650,7 +1040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1674,7 +1064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1698,7 +1088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1722,7 +1112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1746,7 +1136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1770,7 +1160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1794,7 +1184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1818,7 +1208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1842,7 +1232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1866,7 +1256,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1890,7 +1280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1914,7 +1304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1938,7 +1328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1962,7 +1352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -1986,7 +1376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -2010,7 +1400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2034,7 +1424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -2058,7 +1448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -2082,7 +1472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -2106,7 +1496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -2130,7 +1520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -2154,7 +1544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -2178,7 +1568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -2202,7 +1592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -2226,7 +1616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -2250,7 +1640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -2274,7 +1664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -2298,7 +1688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -2322,7 +1712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -2346,7 +1736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -2370,7 +1760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -2394,7 +1784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -2418,7 +1808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -2442,7 +1832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -2466,7 +1856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -2490,7 +1880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -2514,7 +1904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -2538,7 +1928,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -2562,7 +1952,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -2586,7 +1976,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -2609,13 +1999,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>115</v>
       </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
       <c r="D55">
         <v>154</v>
       </c>
@@ -2630,7 +2017,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>